--- a/Tools/Predict_model_specs.xlsx
+++ b/Tools/Predict_model_specs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Data_period_name</t>
   </si>
@@ -41,13 +41,13 @@
     <t xml:space="preserve">Modelling_completed</t>
   </si>
   <si>
-    <t xml:space="preserve">1985_1997</t>
+    <t xml:space="preserve">2009_2018</t>
   </si>
   <si>
     <t xml:space="preserve">rf_regionalized_filtered</t>
   </si>
   <si>
-    <t xml:space="preserve">Period_1985_1997.rf_regionalized_filtered.downsampled</t>
+    <t xml:space="preserve">Period_2009_2018.rf_regionalized_filtered.downsampled</t>
   </si>
   <si>
     <t xml:space="preserve">rf</t>
@@ -60,18 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997_2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period_1997_2009.rf_regionalized_filtered.downsampled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009_2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period_2009_2018.rf_regionalized_filtered.downsampled</t>
   </si>
 </sst>
 </file>
@@ -461,64 +449,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
